--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -201,7 +201,7 @@
     <t>Died</t>
   </si>
   <si>
-    <t>XE9S7</t>
+    <t>LAND</t>
   </si>
   <si>
     <t>Land</t>
@@ -210,21 +210,6 @@
     <t>Exposure to water transport injury event</t>
   </si>
   <si>
-    <t>XE85L</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>XE5XH</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>Exposure to air or space transport injury event</t>
-  </si>
-  <si>
     <t>INJURYFRONT</t>
   </si>
   <si>
@@ -313,6 +298,21 @@
   </si>
   <si>
     <t>Data Element: Was Transport Coordinated with Receiving Hospital?</t>
+  </si>
+  <si>
+    <t>ER_OUTPATIENT_OUTCOME</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Data Element: ER/Outpatient Outcome</t>
+  </si>
+  <si>
+    <t>INPATIENT_OUTCOME</t>
+  </si>
+  <si>
+    <t>Data Element: Inpatient Outcome</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
         <v>66</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -830,13 +830,13 @@
         <v>43</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -844,13 +844,13 @@
         <v>43</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -858,13 +858,13 @@
         <v>43</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -872,13 +872,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -886,13 +886,13 @@
         <v>43</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -900,13 +900,13 @@
         <v>43</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -914,13 +914,13 @@
         <v>43</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -928,13 +928,13 @@
         <v>43</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -942,13 +942,13 @@
         <v>43</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -956,13 +956,13 @@
         <v>43</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -970,10 +970,10 @@
         <v>43</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>99</v>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SILPH-LocalCodesCS.xlsx
+++ b/CodeSystem-SILPH-LocalCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
